--- a/tests/data/test_assert_datasets_equal.xlsx
+++ b/tests/data/test_assert_datasets_equal.xlsx
@@ -5,20 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnoto\Documents\_Other\Source\Repos\dataunit\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnoto\Documents\_Other\Source\Repos\dataunit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0560AD7F-9694-42A1-BCEC-248A38CE1390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB902E-6E40-47B6-8FE0-BC8EE8E7C0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1395" windowWidth="28110" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1395" windowWidth="28110" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Test Commands" sheetId="2" r:id="rId2"/>
     <sheet name="Settings" sheetId="4" r:id="rId3"/>
-    <sheet name="_commands" sheetId="6" state="hidden" r:id="rId4"/>
-    <sheet name="_command_parameters" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Diet_Log_1" sheetId="8" r:id="rId4"/>
+    <sheet name="_commands" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="_command_parameters" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Commands'!$A$1:$M$12</definedName>
     <definedName name="CommandType">_commands!$A$2:$A$13</definedName>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="150">
   <si>
     <t>Active</t>
   </si>
@@ -281,13 +285,22 @@
     <t>Test Commands</t>
   </si>
   <si>
+    <t>${DB_CONNECTION}</t>
+  </si>
+  <si>
     <t>DB_CONNECTION</t>
   </si>
   <si>
     <t>Database connection string</t>
   </si>
   <si>
-    <t>DRIVER={SQL Server};SERVER=localhost;DATABASE=MyFitBot;Trusted_Connection=yes;</t>
+    <t>sql_statement</t>
+  </si>
+  <si>
+    <t>connection_string</t>
+  </si>
+  <si>
+    <t>Execute query and return result</t>
   </si>
   <si>
     <t>Compare expected and actual results</t>
@@ -296,9 +309,6 @@
     <t>expected_dataset</t>
   </si>
   <si>
-    <t>User_Report_1</t>
-  </si>
-  <si>
     <t>expected_dataset_type</t>
   </si>
   <si>
@@ -308,13 +318,187 @@
     <t>actual_dataset</t>
   </si>
   <si>
-    <t>user_report</t>
-  </si>
-  <si>
     <t>actual_dataset_type</t>
   </si>
   <si>
     <t>Resultset</t>
+  </si>
+  <si>
+    <t>Log_Date</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Food_Name</t>
+  </si>
+  <si>
+    <t>Calorie_Per_Unit</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Glazed Donut</t>
+  </si>
+  <si>
+    <t>Christel</t>
+  </si>
+  <si>
+    <t>Russen</t>
+  </si>
+  <si>
+    <t>Coke (12 oz.)</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Ham Sandwich</t>
+  </si>
+  <si>
+    <t>Potato Chips</t>
+  </si>
+  <si>
+    <t>Chocolate Chip Cookie</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Greek Salad</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Steak (8 oz.)</t>
+  </si>
+  <si>
+    <t>Mashed Potatoes (1 cup)</t>
+  </si>
+  <si>
+    <t>Green Beans (1 cup)</t>
+  </si>
+  <si>
+    <t>Red Wine (5 oz.)</t>
+  </si>
+  <si>
+    <t>Grilled Salmon (6 oz.)</t>
+  </si>
+  <si>
+    <t>Quinoa (.75 cup)</t>
+  </si>
+  <si>
+    <t>Granola Bar</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Diet_Log_1</t>
+  </si>
+  <si>
+    <t>diet_log</t>
+  </si>
+  <si>
+    <t>SELECT * FROM dbo.Diet_Log_Profile_Test</t>
+  </si>
+  <si>
+    <t>result_variable_name</t>
+  </si>
+  <si>
+    <t>DRIVER={SQL Server};SERVER=localhost;DATABASE=MyFitBot;UID=SA;PWD=dataunitSQL2020!;</t>
+  </si>
+  <si>
+    <t>2018-02-15 08:30:18</t>
+  </si>
+  <si>
+    <t>2018-02-15 12:30:35</t>
+  </si>
+  <si>
+    <t>2018-02-15 15:12:19</t>
+  </si>
+  <si>
+    <t>2018-02-16 08:00:45</t>
+  </si>
+  <si>
+    <t>2018-02-16 12:14:19</t>
+  </si>
+  <si>
+    <t>2018-02-16 14:08:34</t>
+  </si>
+  <si>
+    <t>2018-02-15 18:30:57</t>
+  </si>
+  <si>
+    <t>2018-02-16 18:08:34</t>
+  </si>
+  <si>
+    <t>2018-02-16 21:03:16</t>
   </si>
 </sst>
 </file>
@@ -400,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -445,6 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,6 +645,228 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tests"/>
+      <sheetName val="Test Commands"/>
+      <sheetName val="Settings"/>
+      <sheetName val="_commands"/>
+      <sheetName val="_command_parameters"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Execute SQL-1</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>SQL</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Execute SQL-2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Connection</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Execute SQL With Resultset-1</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>SQL</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>Execute SQL With Resultset-2</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>Connection</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Execute SQL With Resultset-3</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>ResultVariableName</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Execute Shell Command-1</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Command</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>Load Sheet to Table-1</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Sheet Name</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>Load Sheet to Table-2</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Table Name</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>Load Sheet to Table-3</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Connection</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>Load Sheet to Table-4</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>Truncate Table</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>Save Sheet to File-1</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Sheet Name</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>Save Sheet to File-2</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>File Path Name</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>Save Sheet to File-3</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>File Format</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>Assert Datasets Equal-1</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Expected Dataset</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Assert Datasets Equal-2</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Expected Dataset Type</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>Assert Datasets Equal-3</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Actual Dataset</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>Assert Datasets Equal-4</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Actual Dataset Type</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>Assert SQL Records Returned-1</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>SQL</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>Assert SQL Records Returned-2</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Connection</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>Assert SQL No Records Returned-1</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>SQL</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>Assert SQL No Records Returned-2</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Connection</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Assert SQL Single Value Returned-1</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>SQL</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>Assert SQL Single Value Returned-2</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Connection</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>Assert Last Return Code Equal-1</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Expected Return Code</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>Assert Last Return Code Not Equal-1</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Expected Return Code</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,9 +1299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -956,21 +1363,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="10" t="str">
+        <f>IF($C2="","",IF(ISNA(VLOOKUP($C2&amp;"-"&amp;MID($L$1,11,1),[1]_command_parameters!$C$2:$D$26,2,FALSE)),"",VLOOKUP($C2&amp;"-"&amp;MID($L$1,11,1),[1]_command_parameters!$C$2:$D$26,2,FALSE)))</f>
+        <v/>
+      </c>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="31" x14ac:dyDescent="0.35">
@@ -978,34 +1404,34 @@
         <v>75</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" s="10" t="str">
         <f>IF($C3="","",IF(ISNA(VLOOKUP($C3&amp;"-"&amp;MID($L$1,11,1),_command_parameters!$C$2:$D$26,2,FALSE)),"",VLOOKUP($C3&amp;"-"&amp;MID($L$1,11,1),_command_parameters!$C$2:$D$26,2,FALSE)))</f>
@@ -1589,7 +2015,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:A1048576 A5:A13 A2:A3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>CommandType</formula1>
     </dataValidation>
   </dataValidations>
@@ -1604,7 +2030,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1628,13 +2054,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1834,6 +2260,537 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A888A69A-925C-4A9A-9F5B-58BFB464FF77}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="16"/>
+    <col min="3" max="3" width="29.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="16"/>
+    <col min="6" max="6" width="10.4140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1951,7 +2908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
